--- a/ImplementationGuide/fsh.ig/all-profiles.xlsx
+++ b/ImplementationGuide/fsh.ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-11T02:51:28+00:00</t>
+    <t>2024-09-11T03:42:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
